--- a/data/Table10_summary.xlsx
+++ b/data/Table10_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3DB0C4-7CE6-45C3-9702-02E546F20F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1ED509-1F29-4530-8237-0F4A16FDF105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
+    <workbookView xWindow="-21345" yWindow="945" windowWidth="21600" windowHeight="13215" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Tool</t>
   </si>
@@ -50,30 +50,12 @@
     <t>4.  Expected performance</t>
   </si>
   <si>
-    <t>4. ADD THIS TOOL 4? See Table 7 to right</t>
-  </si>
-  <si>
     <t>3.  How long?</t>
   </si>
   <si>
     <t>7.  Enhanced Attenuation</t>
   </si>
   <si>
-    <t>RTAI = 1</t>
-  </si>
-  <si>
-    <t>RTAI = 2</t>
-  </si>
-  <si>
-    <t>RTAI = 3</t>
-  </si>
-  <si>
-    <t>RTAI = 4</t>
-  </si>
-  <si>
-    <t>RTAI = 5</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -125,39 +107,6 @@
     <t>5 to &lt;10</t>
   </si>
   <si>
-    <t>10 to 25</t>
-  </si>
-  <si>
-    <t>&gt;25 to 50</t>
-  </si>
-  <si>
-    <t>&gt;50</t>
-  </si>
-  <si>
-    <t>checkmark</t>
-  </si>
-  <si>
-    <t>RTAI</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>Fair</t>
-  </si>
-  <si>
-    <t>Typical</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Candidate</t>
-  </si>
-  <si>
     <t>Rationale</t>
   </si>
   <si>
@@ -177,6 +126,36 @@
   </si>
   <si>
     <t>If EA technology can be easily implemented, that is better candidate for TA.  Use depth, width to estimate cost, ease of installation as key proxy.</t>
+  </si>
+  <si>
+    <t>4.  Remedial Potential</t>
+  </si>
+  <si>
+    <t>Poor Candidate RTAI = 1</t>
+  </si>
+  <si>
+    <t>Fair Candidate RTAI = 2</t>
+  </si>
+  <si>
+    <t>Typical Candidate RTAI = 3</t>
+  </si>
+  <si>
+    <t>Good Candidate RTAI = 4</t>
+  </si>
+  <si>
+    <t>Strong Candidate RTAI = 5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>≥50</t>
+  </si>
+  <si>
+    <t>25 to &lt;50</t>
+  </si>
+  <si>
+    <t>10 to &lt;25</t>
   </si>
 </sst>
 </file>
@@ -241,19 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -267,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7AD560-80A4-4CB9-A0F1-BAAD436A4F78}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,199 +566,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/Table10_summary.xlsx
+++ b/data/Table10_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1ED509-1F29-4530-8237-0F4A16FDF105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270A5EAA-1213-4029-B2FF-296D02BF5D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21345" yWindow="945" windowWidth="21600" windowHeight="13215" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
+    <workbookView xWindow="-24735" yWindow="6195" windowWidth="21600" windowHeight="11235" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,15 +77,6 @@
     <t>0.5 to &lt;0.75</t>
   </si>
   <si>
-    <t>0.75 to 1.25</t>
-  </si>
-  <si>
-    <t>&gt;1.25 to 2</t>
-  </si>
-  <si>
-    <t>&gt;2</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -156,6 +147,15 @@
   </si>
   <si>
     <t>10 to &lt;25</t>
+  </si>
+  <si>
+    <t>≥2</t>
+  </si>
+  <si>
+    <t>0.75 to &lt;1.25</t>
+  </si>
+  <si>
+    <t>1.25 to &lt;2</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,7 +556,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,22 +570,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -645,39 +645,39 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -685,22 +685,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -708,22 +708,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/Table10_summary.xlsx
+++ b/data/Table10_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270A5EAA-1213-4029-B2FF-296D02BF5D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEF9F2C-1C51-48EA-B272-6EA685F22DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24735" yWindow="6195" windowWidth="21600" windowHeight="11235" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
+    <workbookView xWindow="-25200" yWindow="2760" windowWidth="21600" windowHeight="11295" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Tool</t>
   </si>
   <si>
-    <t>1.  Asymptote</t>
-  </si>
-  <si>
-    <t>2.  Is my Plume expanding?</t>
-  </si>
-  <si>
-    <t>4.  Expected performance</t>
-  </si>
-  <si>
-    <t>3.  How long?</t>
-  </si>
-  <si>
-    <t>7.  Enhanced Attenuation</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>If EA technology can be easily implemented, that is better candidate for TA.  Use depth, width to estimate cost, ease of installation as key proxy.</t>
   </si>
   <si>
-    <t>4.  Remedial Potential</t>
-  </si>
-  <si>
     <t>Poor Candidate RTAI = 1</t>
   </si>
   <si>
@@ -156,6 +138,27 @@
   </si>
   <si>
     <t>1.25 to &lt;2</t>
+  </si>
+  <si>
+    <t>1.  Asymptote (Tool 1)</t>
+  </si>
+  <si>
+    <t>2.  Is my Plume expanding? (Tool 2)</t>
+  </si>
+  <si>
+    <t>4.  Remedial Potential (Tool 4)</t>
+  </si>
+  <si>
+    <t>3.  Expected performance (Tool 4)</t>
+  </si>
+  <si>
+    <t>5.  How long? (Tool 3)</t>
+  </si>
+  <si>
+    <t>6.  Enhanced Attenuation (Tool 7)</t>
+  </si>
+  <si>
+    <t>Metric</t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7AD560-80A4-4CB9-A0F1-BAAD436A4F78}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,27 +573,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -608,122 +611,142 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Table10_summary.xlsx
+++ b/data/Table10_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEF9F2C-1C51-48EA-B272-6EA685F22DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A89456-4E1A-449E-947F-C3BF0F57E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="2760" windowWidth="21600" windowHeight="11295" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>The larger the Remediation Challenge then the higher the RTAI because remediation will likely not meet expectations</t>
   </si>
   <si>
-    <t>See Table 7 to right:  Use Existing ITRC methodolgy to estimate Remediation Potential Assessment</t>
-  </si>
-  <si>
     <t>More time required to reach cleanup goals after hypothetical 100%  source remediation means higher RTAI</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>Use Existing ITRC methodolgy to estimate Remediation Potential Assessment</t>
   </si>
 </sst>
 </file>
@@ -559,41 +559,41 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -614,9 +614,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -637,9 +637,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -648,21 +648,21 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -680,12 +680,12 @@
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -694,44 +694,44 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/data/Table10_summary.xlsx
+++ b/data/Table10_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A89456-4E1A-449E-947F-C3BF0F57E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3F992D-B919-41C3-8284-C58D31F5E828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{69B0A375-BAD4-4609-BADF-72D27CC3AE0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,21 +86,6 @@
     <t>Rationale</t>
   </si>
   <si>
-    <t>If more Lines of Evidence that the site is at asymptotic conditions, the higher the RTAI</t>
-  </si>
-  <si>
-    <t>If key edge/sentinal well group has stable or declining concentrations, then RTAI is higher</t>
-  </si>
-  <si>
-    <t>The larger the Remediation Challenge then the higher the RTAI because remediation will likely not meet expectations</t>
-  </si>
-  <si>
-    <t>More time required to reach cleanup goals after hypothetical 100%  source remediation means higher RTAI</t>
-  </si>
-  <si>
-    <t>If EA technology can be easily implemented, that is better candidate for TA.  Use depth, width to estimate cost, ease of installation as key proxy.</t>
-  </si>
-  <si>
     <t>Poor Candidate RTAI = 1</t>
   </si>
   <si>
@@ -158,7 +143,22 @@
     <t>Metric</t>
   </si>
   <si>
-    <t>Use Existing ITRC methodolgy to estimate Remediation Potential Assessment</t>
+    <t>The RTAI is higher for sites where a higher concentration is needed and may not be achievable based on the expected level of performance of remediation technologies.</t>
+  </si>
+  <si>
+    <t>The RTAI is higher if there are more Lines of Evidence that concentrations at the site are asymptotic.</t>
+  </si>
+  <si>
+    <t>The RTAI is higher if key downgradient/sentinal well(s) exhibit stable or declining concentration trends.</t>
+  </si>
+  <si>
+    <t>The RTAI is higher for sites where EA technologies or approaches can be easily implemented. It is based on the depth and width of the area being targeted, which are used as proxies for cost and ease of installation.</t>
+  </si>
+  <si>
+    <t>The RTAI is higher for sites where additional source remediation does not result in short remediation timeframes. It is based on the estimated number of years to reach the cleanup goal after source remediation.</t>
+  </si>
+  <si>
+    <t>The RTAI is higher for sites with challenging cleanup goals and difficult conditions. It is based on a similar methodology developed by ITRC for evaluating remediation potential.</t>
   </si>
 </sst>
 </file>
@@ -559,41 +559,41 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -611,12 +611,12 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -634,12 +634,12 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -648,21 +648,21 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -683,9 +683,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -694,44 +694,44 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0</v>
